--- a/doc/general_possibilities.xlsx
+++ b/doc/general_possibilities.xlsx
@@ -120,9 +120,6 @@
     <t>more than one field</t>
   </si>
   <si>
-    <t>reting</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
@@ -331,6 +328,9 @@
       </rPr>
       <t>)</t>
     </r>
+  </si>
+  <si>
+    <t>rating</t>
   </si>
 </sst>
 </file>
@@ -1088,7 +1088,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A20" sqref="A20"/>
+      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1121,7 +1121,7 @@
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1219,7 +1219,7 @@
     </row>
     <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1264,10 +1264,10 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>18</v>
@@ -1337,7 +1337,7 @@
     </row>
     <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -1405,7 +1405,7 @@
     </row>
     <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -1438,10 +1438,10 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="6" t="s">
         <v>21</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>22</v>
       </c>
       <c r="D31" s="14" t="s">
         <v>17</v>
@@ -1499,7 +1499,7 @@
     </row>
     <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A36" s="32" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>

--- a/doc/general_possibilities.xlsx
+++ b/doc/general_possibilities.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12660" tabRatio="700" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Filter possibilities" sheetId="1" r:id="rId1"/>
+    <sheet name="Sort possibilities" sheetId="4" r:id="rId2"/>
+    <sheet name="Main property" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="38">
   <si>
     <t>ebay (epn API)</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>is description</t>
+  </si>
+  <si>
+    <t>currency</t>
   </si>
   <si>
     <t>select</t>
@@ -92,22 +95,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>country</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>?</t>
-    </r>
-  </si>
-  <si>
     <t>+</t>
   </si>
   <si>
@@ -121,111 +108,6 @@
   </si>
   <si>
     <t>A</t>
-  </si>
-  <si>
-    <t>Find by product ID?</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Find by keyword</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Order possibilities</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="7" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Find by category</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> (</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="6" tint="-0.499984740745262"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Order possibilities</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>)</t>
-    </r>
   </si>
   <si>
     <r>
@@ -331,6 +213,141 @@
   </si>
   <si>
     <t>rating</t>
+  </si>
+  <si>
+    <t>random</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>mixed</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>shippingPrice</t>
+  </si>
+  <si>
+    <t>images</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Find by category</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sort possibilities</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="7" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Find by keyword</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="14"/>
+        <color theme="6" tint="-0.499984740745262"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sort possibilities</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <t>+(1)</t>
   </si>
 </sst>
 </file>
@@ -439,7 +456,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -599,51 +616,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="hair">
-        <color auto="1"/>
-      </left>
-      <right style="hair">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color auto="1"/>
@@ -699,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -711,11 +683,9 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -734,24 +704,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
@@ -772,8 +733,8 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1082,46 +1043,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A32" sqref="A32"/>
+      <selection pane="bottomRight" activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" style="13" customWidth="1"/>
-    <col min="4" max="6" width="17" style="14" customWidth="1"/>
-    <col min="7" max="7" width="17" style="15" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="11" customWidth="1"/>
+    <col min="4" max="6" width="17" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17" style="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="8"/>
-      <c r="B1" s="9"/>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -1134,16 +1098,19 @@
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="14" t="s">
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1151,373 +1118,159 @@
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="13" t="s">
-        <v>18</v>
+      <c r="C6" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="2" t="s">
+      <c r="B7" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="26" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="4"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F12" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" s="12" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="F15" s="14" t="s">
+      <c r="B15" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="19"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="9"/>
-      <c r="C17" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F17" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="28"/>
-      <c r="B18" s="29"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="5"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="17"/>
-      <c r="E27" s="17"/>
-      <c r="F27" s="17"/>
-      <c r="G27" s="18"/>
-    </row>
-    <row r="28" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A28" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="3"/>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="4"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D30" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D31" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="19"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="21"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22"/>
-      <c r="F33" s="22"/>
-      <c r="G33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="F34" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="G34" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="31" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="29"/>
-      <c r="C35" s="30"/>
-      <c r="D35" s="30"/>
-      <c r="E35" s="30"/>
-      <c r="F35" s="30"/>
-      <c r="G35" s="30"/>
-    </row>
-    <row r="36" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="B36" s="3"/>
-      <c r="C36" s="3"/>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="3"/>
-      <c r="G36" s="4"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="A36:G36"/>
+  <mergeCells count="3">
+    <mergeCell ref="A10:G10"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A11:G11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1526,24 +1279,489 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="6" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="11" customWidth="1"/>
+    <col min="4" max="6" width="17" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="16"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17"/>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="18"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="26" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+    </row>
+    <row r="10" spans="1:7" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="4"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="7"/>
+      <c r="C16" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A10:G10"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr>
+    <tabColor theme="8" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F10" sqref="F10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="13.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="11" customWidth="1"/>
+    <col min="4" max="6" width="17" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17" style="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="6"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F5" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>